--- a/ParametricGraph/BenchShevefeliaFunction.xlsx
+++ b/ParametricGraph/BenchShevefeliaFunction.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G10"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -418,10 +418,10 @@
         <v>3</v>
       </c>
       <c r="K1">
+        <v>120</v>
+      </c>
+      <c r="L1">
         <v>0</v>
-      </c>
-      <c r="L1">
-        <v>-120</v>
       </c>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
